--- a/LineGraph/RealMark.xlsx
+++ b/LineGraph/RealMark.xlsx
@@ -42,7 +42,7 @@
     <t>TotalMark</t>
   </si>
   <si>
-    <t>CGPA</t>
+    <t>SGPA</t>
   </si>
 </sst>
 </file>
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="I112" sqref="I112"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B44">
         <v>4.28</v>
@@ -1526,10 +1526,10 @@
         <v>3.06</v>
       </c>
       <c r="E44">
-        <v>18.5</v>
+        <v>7.5</v>
       </c>
       <c r="F44">
-        <v>17.460000000000012</v>
+        <v>33.460000000000008</v>
       </c>
       <c r="G44">
         <v>61.2</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B45">
         <v>4.28</v>
@@ -1552,10 +1552,10 @@
         <v>3.06</v>
       </c>
       <c r="E45">
-        <v>7.5</v>
+        <v>17.5</v>
       </c>
       <c r="F45">
-        <v>33.460000000000008</v>
+        <v>18.460000000000012</v>
       </c>
       <c r="G45">
         <v>61.2</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B46">
         <v>4.28</v>
@@ -1578,10 +1578,10 @@
         <v>3.06</v>
       </c>
       <c r="E46">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="F46">
-        <v>18.460000000000012</v>
+        <v>25.960000000000012</v>
       </c>
       <c r="G46">
         <v>61.2</v>
@@ -1592,28 +1592,28 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B47">
-        <v>4.28</v>
+        <v>5.6</v>
       </c>
       <c r="C47">
-        <v>4.9000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="D47">
-        <v>3.06</v>
+        <v>4</v>
       </c>
       <c r="E47">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F47">
-        <v>25.960000000000012</v>
+        <v>30</v>
       </c>
       <c r="G47">
-        <v>61.2</v>
+        <v>84</v>
       </c>
       <c r="H47">
-        <v>3.06</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1633,10 +1633,10 @@
         <v>24</v>
       </c>
       <c r="F48">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G48">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H48">
         <v>4</v>
@@ -1644,25 +1644,25 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>15</v>
+        <v>12.83</v>
       </c>
       <c r="B49">
-        <v>5.6</v>
+        <v>6.65</v>
       </c>
       <c r="C49">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E49">
-        <v>20.5</v>
+        <v>24</v>
       </c>
       <c r="F49">
-        <v>28.5</v>
+        <v>33.5</v>
       </c>
       <c r="G49">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -1670,210 +1670,210 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B50">
-        <v>5.6</v>
+        <v>0.1575</v>
       </c>
       <c r="C50">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="D50">
         <v>4</v>
       </c>
       <c r="E50">
-        <v>20.5</v>
+        <v>19.842500000000001</v>
       </c>
       <c r="F50">
-        <v>29.5</v>
+        <v>28.5</v>
       </c>
       <c r="G50">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B51">
-        <v>5.43</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C51">
-        <v>6.21</v>
+        <v>5</v>
       </c>
       <c r="D51">
-        <v>3.88</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <v>15</v>
+        <v>17.324999999999999</v>
       </c>
       <c r="F51">
-        <v>34.08</v>
+        <v>27.5</v>
       </c>
       <c r="G51">
-        <v>77.599999999999994</v>
+        <v>63</v>
       </c>
       <c r="H51">
-        <v>3.88</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52">
-        <v>0.28000000000000003</v>
+        <v>3.79</v>
       </c>
       <c r="C52">
-        <v>6.5</v>
+        <v>4.34</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>2.71</v>
       </c>
       <c r="E52">
-        <v>17.72</v>
+        <v>14</v>
       </c>
       <c r="F52">
-        <v>21.5</v>
+        <v>20.36</v>
       </c>
       <c r="G52">
-        <v>61</v>
+        <v>54.2</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B53">
-        <v>6.6499999999999986</v>
+        <v>3.79</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>4.34</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>2.71</v>
       </c>
       <c r="E53">
-        <v>16.350000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="F53">
-        <v>17</v>
+        <v>23.86</v>
       </c>
       <c r="G53">
-        <v>60</v>
+        <v>54.2</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B54">
-        <v>5.46</v>
+        <v>5.04</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>5.76</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="E54">
-        <v>21.54</v>
+        <v>21</v>
       </c>
       <c r="F54">
-        <v>32</v>
+        <v>26.6</v>
       </c>
       <c r="G54">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B55">
-        <v>0.26250000000000001</v>
+        <v>5.04</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>5.76</v>
       </c>
       <c r="D55">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="E55">
-        <v>24.237500000000001</v>
+        <v>13.5</v>
       </c>
       <c r="F55">
-        <v>26</v>
+        <v>35.1</v>
       </c>
       <c r="G55">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H55">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>12.5</v>
+        <v>6</v>
       </c>
       <c r="B56">
-        <v>3.29</v>
+        <v>5.04</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>5.76</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="E56">
-        <v>21.71</v>
+        <v>18</v>
       </c>
       <c r="F56">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="G56">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B57">
-        <v>0.1575</v>
+        <v>5.04</v>
       </c>
       <c r="C57">
-        <v>4.5</v>
+        <v>5.76</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="E57">
-        <v>19.842500000000001</v>
+        <v>19</v>
       </c>
       <c r="F57">
-        <v>28.5</v>
+        <v>23.6</v>
       </c>
       <c r="G57">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H57">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -1881,77 +1881,77 @@
         <v>9</v>
       </c>
       <c r="B58">
-        <v>0.17499999999999999</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>5.31</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>3.32</v>
       </c>
       <c r="E58">
-        <v>17.324999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="F58">
-        <v>27.5</v>
+        <v>29.62</v>
       </c>
       <c r="G58">
-        <v>63</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>14.5</v>
+        <v>7</v>
       </c>
       <c r="B59">
-        <v>5.67</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="C59">
-        <v>5.5</v>
+        <v>5.31</v>
       </c>
       <c r="D59">
-        <v>4.5</v>
+        <v>3.32</v>
       </c>
       <c r="E59">
-        <v>21.83</v>
+        <v>16.5</v>
       </c>
       <c r="F59">
-        <v>28</v>
+        <v>29.62</v>
       </c>
       <c r="G59">
-        <v>80</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B60">
-        <v>0.28000000000000003</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>5.31</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>3.32</v>
       </c>
       <c r="E60">
-        <v>31.72</v>
+        <v>13</v>
       </c>
       <c r="F60">
-        <v>29</v>
+        <v>33.119999999999997</v>
       </c>
       <c r="G60">
-        <v>85</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -1959,77 +1959,77 @@
         <v>9</v>
       </c>
       <c r="B61">
-        <v>3.79</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="C61">
-        <v>4.34</v>
+        <v>5.31</v>
       </c>
       <c r="D61">
-        <v>2.71</v>
+        <v>3.32</v>
       </c>
       <c r="E61">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F61">
-        <v>20.36</v>
+        <v>27.12</v>
       </c>
       <c r="G61">
-        <v>54.2</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="H61">
-        <v>2.71</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B62">
-        <v>3.79</v>
+        <v>5.01</v>
       </c>
       <c r="C62">
-        <v>4.34</v>
+        <v>5.73</v>
       </c>
       <c r="D62">
-        <v>2.71</v>
+        <v>3.58</v>
       </c>
       <c r="E62">
-        <v>5.5</v>
+        <v>18</v>
       </c>
       <c r="F62">
-        <v>23.86</v>
+        <v>30.27999999999999</v>
       </c>
       <c r="G62">
-        <v>54.2</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="H62">
-        <v>2.71</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B63">
-        <v>5.04</v>
+        <v>5.01</v>
       </c>
       <c r="C63">
-        <v>5.76</v>
+        <v>5.73</v>
       </c>
       <c r="D63">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
       <c r="E63">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="F63">
-        <v>26.6</v>
+        <v>28.77999999999999</v>
       </c>
       <c r="G63">
-        <v>72</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="H63">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2037,389 +2037,389 @@
         <v>9</v>
       </c>
       <c r="B64">
-        <v>5.04</v>
+        <v>5.01</v>
       </c>
       <c r="C64">
-        <v>5.76</v>
+        <v>5.73</v>
       </c>
       <c r="D64">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
       <c r="E64">
-        <v>13.5</v>
+        <v>21.5</v>
       </c>
       <c r="F64">
-        <v>35.1</v>
+        <v>26.77999999999999</v>
       </c>
       <c r="G64">
-        <v>72</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="H64">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B65">
-        <v>5.04</v>
+        <v>5.01</v>
       </c>
       <c r="C65">
-        <v>5.76</v>
+        <v>5.73</v>
       </c>
       <c r="D65">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
       <c r="E65">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="F65">
-        <v>33.6</v>
+        <v>29.77999999999999</v>
       </c>
       <c r="G65">
-        <v>72</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="H65">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B66">
-        <v>5.04</v>
+        <v>4.8</v>
       </c>
       <c r="C66">
-        <v>5.76</v>
+        <v>5.49</v>
       </c>
       <c r="D66">
-        <v>3.6</v>
+        <v>3.43</v>
       </c>
       <c r="E66">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="F66">
-        <v>23.6</v>
+        <v>29.38</v>
       </c>
       <c r="G66">
-        <v>72</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="H66">
-        <v>3.6</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B67">
-        <v>4.6500000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="C67">
-        <v>5.31</v>
+        <v>5.49</v>
       </c>
       <c r="D67">
-        <v>3.32</v>
+        <v>3.43</v>
       </c>
       <c r="E67">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="F67">
-        <v>29.62</v>
+        <v>21.88</v>
       </c>
       <c r="G67">
-        <v>66.400000000000006</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="H67">
-        <v>3.32</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B68">
-        <v>4.6500000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="C68">
-        <v>5.31</v>
+        <v>5.49</v>
       </c>
       <c r="D68">
-        <v>3.32</v>
+        <v>3.43</v>
       </c>
       <c r="E68">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="F68">
-        <v>29.62</v>
+        <v>22.88</v>
       </c>
       <c r="G68">
-        <v>66.400000000000006</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="H68">
-        <v>3.32</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B69">
-        <v>4.6500000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="C69">
-        <v>5.31</v>
+        <v>5.49</v>
       </c>
       <c r="D69">
-        <v>3.32</v>
+        <v>3.43</v>
       </c>
       <c r="E69">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F69">
-        <v>33.119999999999997</v>
+        <v>26.88</v>
       </c>
       <c r="G69">
-        <v>66.400000000000006</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="H69">
-        <v>3.32</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B70">
-        <v>4.6500000000000004</v>
+        <v>3.75</v>
       </c>
       <c r="C70">
-        <v>5.31</v>
+        <v>4.29</v>
       </c>
       <c r="D70">
-        <v>3.32</v>
+        <v>2.68</v>
       </c>
       <c r="E70">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F70">
-        <v>27.12</v>
+        <v>29.88</v>
       </c>
       <c r="G70">
-        <v>66.400000000000006</v>
+        <v>53.6</v>
       </c>
       <c r="H70">
-        <v>3.32</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
+        <v>7</v>
+      </c>
+      <c r="B71">
+        <v>3.75</v>
+      </c>
+      <c r="C71">
+        <v>4.29</v>
+      </c>
+      <c r="D71">
+        <v>2.68</v>
+      </c>
+      <c r="E71">
         <v>9</v>
       </c>
-      <c r="B71">
-        <v>5.01</v>
-      </c>
-      <c r="C71">
-        <v>5.73</v>
-      </c>
-      <c r="D71">
-        <v>3.58</v>
-      </c>
-      <c r="E71">
-        <v>18</v>
-      </c>
       <c r="F71">
-        <v>30.27999999999999</v>
+        <v>26.88</v>
       </c>
       <c r="G71">
-        <v>71.599999999999994</v>
+        <v>53.6</v>
       </c>
       <c r="H71">
-        <v>3.58</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B72">
-        <v>5.01</v>
+        <v>3.75</v>
       </c>
       <c r="C72">
-        <v>5.73</v>
+        <v>4.29</v>
       </c>
       <c r="D72">
-        <v>3.58</v>
+        <v>2.68</v>
       </c>
       <c r="E72">
-        <v>17.5</v>
+        <v>4.25</v>
       </c>
       <c r="F72">
-        <v>28.77999999999999</v>
+        <v>29.63</v>
       </c>
       <c r="G72">
-        <v>71.599999999999994</v>
+        <v>53.6</v>
       </c>
       <c r="H72">
-        <v>3.58</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B73">
-        <v>5.01</v>
+        <v>3.75</v>
       </c>
       <c r="C73">
-        <v>5.73</v>
+        <v>4.29</v>
       </c>
       <c r="D73">
-        <v>3.58</v>
+        <v>2.68</v>
       </c>
       <c r="E73">
-        <v>21.5</v>
+        <v>7.5</v>
       </c>
       <c r="F73">
-        <v>26.77999999999999</v>
+        <v>23.38</v>
       </c>
       <c r="G73">
-        <v>71.599999999999994</v>
+        <v>53.6</v>
       </c>
       <c r="H73">
-        <v>3.58</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B74">
-        <v>5.01</v>
+        <v>5.21</v>
       </c>
       <c r="C74">
-        <v>5.73</v>
+        <v>5.95</v>
       </c>
       <c r="D74">
-        <v>3.58</v>
+        <v>3.72</v>
       </c>
       <c r="E74">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="F74">
-        <v>29.77999999999999</v>
+        <v>28.52000000000001</v>
       </c>
       <c r="G74">
-        <v>71.599999999999994</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="H74">
-        <v>3.58</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B75">
-        <v>4.8</v>
+        <v>5.21</v>
       </c>
       <c r="C75">
-        <v>5.49</v>
+        <v>5.95</v>
       </c>
       <c r="D75">
-        <v>3.43</v>
+        <v>3.72</v>
       </c>
       <c r="E75">
-        <v>14.5</v>
+        <v>15.75</v>
       </c>
       <c r="F75">
-        <v>29.38</v>
+        <v>34.77000000000001</v>
       </c>
       <c r="G75">
-        <v>68.599999999999994</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="H75">
-        <v>3.43</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B76">
-        <v>4.8</v>
+        <v>5.21</v>
       </c>
       <c r="C76">
-        <v>5.49</v>
+        <v>5.95</v>
       </c>
       <c r="D76">
-        <v>3.43</v>
+        <v>3.72</v>
       </c>
       <c r="E76">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="F76">
-        <v>21.88</v>
+        <v>33.02000000000001</v>
       </c>
       <c r="G76">
-        <v>68.599999999999994</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="H76">
-        <v>3.43</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B77">
-        <v>4.8</v>
+        <v>5.21</v>
       </c>
       <c r="C77">
-        <v>5.49</v>
+        <v>5.95</v>
       </c>
       <c r="D77">
-        <v>3.43</v>
+        <v>3.72</v>
       </c>
       <c r="E77">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F77">
-        <v>22.88</v>
+        <v>32.52000000000001</v>
       </c>
       <c r="G77">
-        <v>68.599999999999994</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="H77">
-        <v>3.43</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B78">
-        <v>4.8</v>
+        <v>2.83</v>
       </c>
       <c r="C78">
-        <v>5.49</v>
+        <v>3.23</v>
       </c>
       <c r="D78">
-        <v>3.43</v>
+        <v>2.02</v>
       </c>
       <c r="E78">
-        <v>17</v>
+        <v>7.5</v>
       </c>
       <c r="F78">
-        <v>26.88</v>
+        <v>18.82</v>
       </c>
       <c r="G78">
-        <v>68.599999999999994</v>
+        <v>40.4</v>
       </c>
       <c r="H78">
-        <v>3.43</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2427,207 +2427,207 @@
         <v>7</v>
       </c>
       <c r="B79">
-        <v>3.75</v>
+        <v>2.83</v>
       </c>
       <c r="C79">
-        <v>4.29</v>
+        <v>3.23</v>
       </c>
       <c r="D79">
-        <v>2.68</v>
+        <v>2.02</v>
       </c>
       <c r="E79">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F79">
-        <v>29.88</v>
+        <v>17.32</v>
       </c>
       <c r="G79">
-        <v>53.6</v>
+        <v>40.4</v>
       </c>
       <c r="H79">
-        <v>2.68</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B80">
-        <v>3.75</v>
+        <v>5.17</v>
       </c>
       <c r="C80">
-        <v>4.29</v>
+        <v>5.9</v>
       </c>
       <c r="D80">
-        <v>2.68</v>
+        <v>3.69</v>
       </c>
       <c r="E80">
-        <v>9</v>
+        <v>19.8</v>
       </c>
       <c r="F80">
-        <v>26.88</v>
+        <v>26.239999999999991</v>
       </c>
       <c r="G80">
-        <v>53.6</v>
+        <v>73.8</v>
       </c>
       <c r="H80">
-        <v>2.68</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B81">
-        <v>3.75</v>
+        <v>5.17</v>
       </c>
       <c r="C81">
-        <v>4.29</v>
+        <v>5.9</v>
       </c>
       <c r="D81">
-        <v>2.68</v>
+        <v>3.69</v>
       </c>
       <c r="E81">
-        <v>4.25</v>
+        <v>21</v>
       </c>
       <c r="F81">
-        <v>29.63</v>
+        <v>28.039999999999988</v>
       </c>
       <c r="G81">
-        <v>53.6</v>
+        <v>73.8</v>
       </c>
       <c r="H81">
-        <v>2.68</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B82">
-        <v>3.75</v>
+        <v>5.17</v>
       </c>
       <c r="C82">
-        <v>4.29</v>
+        <v>5.9</v>
       </c>
       <c r="D82">
-        <v>2.68</v>
+        <v>3.69</v>
       </c>
       <c r="E82">
-        <v>7.5</v>
+        <v>14</v>
       </c>
       <c r="F82">
-        <v>23.38</v>
+        <v>37.039999999999992</v>
       </c>
       <c r="G82">
-        <v>53.6</v>
+        <v>73.8</v>
       </c>
       <c r="H82">
-        <v>2.68</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B83">
-        <v>5.21</v>
+        <v>5.17</v>
       </c>
       <c r="C83">
-        <v>5.95</v>
+        <v>5.9</v>
       </c>
       <c r="D83">
-        <v>3.72</v>
+        <v>3.69</v>
       </c>
       <c r="E83">
-        <v>18</v>
+        <v>22.5</v>
       </c>
       <c r="F83">
-        <v>28.52000000000001</v>
+        <v>26.539999999999988</v>
       </c>
       <c r="G83">
-        <v>74.400000000000006</v>
+        <v>73.8</v>
       </c>
       <c r="H83">
-        <v>3.72</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B84">
-        <v>5.21</v>
+        <v>4.28</v>
       </c>
       <c r="C84">
-        <v>5.95</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D84">
-        <v>3.72</v>
+        <v>3.06</v>
       </c>
       <c r="E84">
-        <v>15.75</v>
+        <v>12</v>
       </c>
       <c r="F84">
-        <v>34.77000000000001</v>
+        <v>28.960000000000012</v>
       </c>
       <c r="G84">
-        <v>74.400000000000006</v>
+        <v>61.2</v>
       </c>
       <c r="H84">
-        <v>3.72</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B85">
-        <v>5.21</v>
+        <v>4.28</v>
       </c>
       <c r="C85">
-        <v>5.95</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D85">
-        <v>3.72</v>
+        <v>3.06</v>
       </c>
       <c r="E85">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="F85">
-        <v>33.02000000000001</v>
+        <v>21.960000000000012</v>
       </c>
       <c r="G85">
-        <v>74.400000000000006</v>
+        <v>61.2</v>
       </c>
       <c r="H85">
-        <v>3.72</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B86">
-        <v>5.21</v>
+        <v>4.28</v>
       </c>
       <c r="C86">
-        <v>5.95</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D86">
-        <v>3.72</v>
+        <v>3.06</v>
       </c>
       <c r="E86">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F86">
-        <v>32.52000000000001</v>
+        <v>16.960000000000012</v>
       </c>
       <c r="G86">
-        <v>74.400000000000006</v>
+        <v>61.2</v>
       </c>
       <c r="H86">
-        <v>3.72</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -2635,129 +2635,129 @@
         <v>6</v>
       </c>
       <c r="B87">
-        <v>2.83</v>
+        <v>4.28</v>
       </c>
       <c r="C87">
-        <v>3.23</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D87">
-        <v>2.02</v>
+        <v>3.06</v>
       </c>
       <c r="E87">
-        <v>7.5</v>
+        <v>18.5</v>
       </c>
       <c r="F87">
-        <v>18.82</v>
+        <v>24.46</v>
       </c>
       <c r="G87">
-        <v>40.4</v>
+        <v>61.2</v>
       </c>
       <c r="H87">
-        <v>2.02</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B88">
-        <v>2.83</v>
+        <v>5.43</v>
       </c>
       <c r="C88">
-        <v>3.23</v>
+        <v>6.21</v>
       </c>
       <c r="D88">
-        <v>2.02</v>
+        <v>3.88</v>
       </c>
       <c r="E88">
-        <v>8</v>
+        <v>17.8</v>
       </c>
       <c r="F88">
-        <v>17.32</v>
+        <v>31.27999999999999</v>
       </c>
       <c r="G88">
-        <v>40.4</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="H88">
-        <v>2.02</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B89">
-        <v>5.17</v>
+        <v>5.43</v>
       </c>
       <c r="C89">
-        <v>5.9</v>
+        <v>6.21</v>
       </c>
       <c r="D89">
-        <v>3.69</v>
+        <v>3.88</v>
       </c>
       <c r="E89">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="F89">
-        <v>26.239999999999991</v>
+        <v>27.08</v>
       </c>
       <c r="G89">
-        <v>73.8</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="H89">
-        <v>3.69</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B90">
-        <v>5.17</v>
+        <v>5.43</v>
       </c>
       <c r="C90">
-        <v>5.9</v>
+        <v>6.21</v>
       </c>
       <c r="D90">
-        <v>3.69</v>
+        <v>3.88</v>
       </c>
       <c r="E90">
         <v>21</v>
       </c>
       <c r="F90">
-        <v>28.039999999999988</v>
+        <v>27.08</v>
       </c>
       <c r="G90">
-        <v>73.8</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="H90">
-        <v>3.69</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B91">
-        <v>5.17</v>
+        <v>5.43</v>
       </c>
       <c r="C91">
-        <v>5.9</v>
+        <v>6.21</v>
       </c>
       <c r="D91">
-        <v>3.69</v>
+        <v>3.88</v>
       </c>
       <c r="E91">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F91">
-        <v>37.039999999999992</v>
+        <v>26.08</v>
       </c>
       <c r="G91">
-        <v>73.8</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="H91">
-        <v>3.69</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -2765,25 +2765,25 @@
         <v>10</v>
       </c>
       <c r="B92">
-        <v>5.17</v>
+        <v>3.93</v>
       </c>
       <c r="C92">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
       <c r="D92">
-        <v>3.69</v>
+        <v>2.81</v>
       </c>
       <c r="E92">
-        <v>22.5</v>
+        <v>3</v>
       </c>
       <c r="F92">
-        <v>26.539999999999988</v>
+        <v>31.96</v>
       </c>
       <c r="G92">
-        <v>73.8</v>
+        <v>56.2</v>
       </c>
       <c r="H92">
-        <v>3.69</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -2791,103 +2791,103 @@
         <v>8</v>
       </c>
       <c r="B93">
-        <v>4.28</v>
+        <v>3.93</v>
       </c>
       <c r="C93">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="D93">
-        <v>3.06</v>
+        <v>2.81</v>
       </c>
       <c r="E93">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="F93">
-        <v>28.960000000000012</v>
+        <v>25.46</v>
       </c>
       <c r="G93">
-        <v>61.2</v>
+        <v>56.2</v>
       </c>
       <c r="H93">
-        <v>3.06</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B94">
-        <v>4.28</v>
+        <v>4.7</v>
       </c>
       <c r="C94">
-        <v>4.9000000000000004</v>
+        <v>5.38</v>
       </c>
       <c r="D94">
-        <v>3.06</v>
+        <v>3.36</v>
       </c>
       <c r="E94">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F94">
-        <v>21.960000000000012</v>
+        <v>28.760000000000009</v>
       </c>
       <c r="G94">
-        <v>61.2</v>
+        <v>67.2</v>
       </c>
       <c r="H94">
-        <v>3.06</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B95">
-        <v>4.28</v>
+        <v>4.7</v>
       </c>
       <c r="C95">
-        <v>4.9000000000000004</v>
+        <v>5.38</v>
       </c>
       <c r="D95">
-        <v>3.06</v>
+        <v>3.36</v>
       </c>
       <c r="E95">
         <v>18</v>
       </c>
       <c r="F95">
-        <v>16.960000000000012</v>
+        <v>27.760000000000009</v>
       </c>
       <c r="G95">
-        <v>61.2</v>
+        <v>67.2</v>
       </c>
       <c r="H95">
-        <v>3.06</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B96">
-        <v>4.28</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="C96">
-        <v>4.9000000000000004</v>
+        <v>5.22</v>
       </c>
       <c r="D96">
-        <v>3.06</v>
+        <v>3.26</v>
       </c>
       <c r="E96">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="F96">
-        <v>24.46</v>
+        <v>24.16</v>
       </c>
       <c r="G96">
-        <v>61.2</v>
+        <v>65.2</v>
       </c>
       <c r="H96">
-        <v>3.06</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -2895,440 +2895,180 @@
         <v>13</v>
       </c>
       <c r="B97">
-        <v>5.43</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="C97">
-        <v>6.21</v>
+        <v>5.22</v>
       </c>
       <c r="D97">
-        <v>3.88</v>
+        <v>3.26</v>
       </c>
       <c r="E97">
-        <v>17.8</v>
+        <v>17</v>
       </c>
       <c r="F97">
-        <v>31.27999999999999</v>
+        <v>22.16</v>
       </c>
       <c r="G97">
-        <v>77.599999999999994</v>
+        <v>65.2</v>
       </c>
       <c r="H97">
-        <v>3.88</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B98">
-        <v>5.43</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="C98">
-        <v>6.21</v>
+        <v>5.22</v>
       </c>
       <c r="D98">
-        <v>3.88</v>
+        <v>3.26</v>
       </c>
       <c r="E98">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F98">
-        <v>27.08</v>
+        <v>29.16</v>
       </c>
       <c r="G98">
-        <v>77.599999999999994</v>
+        <v>65.2</v>
       </c>
       <c r="H98">
-        <v>3.88</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B99">
-        <v>5.43</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="C99">
-        <v>6.21</v>
+        <v>5.22</v>
       </c>
       <c r="D99">
-        <v>3.88</v>
+        <v>3.26</v>
       </c>
       <c r="E99">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F99">
-        <v>27.08</v>
+        <v>25.16</v>
       </c>
       <c r="G99">
-        <v>77.599999999999994</v>
+        <v>65.2</v>
       </c>
       <c r="H99">
-        <v>3.88</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B100">
-        <v>5.43</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="C100">
-        <v>6.21</v>
+        <v>5.07</v>
       </c>
       <c r="D100">
-        <v>3.88</v>
+        <v>3.17</v>
       </c>
       <c r="E100">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F100">
-        <v>26.08</v>
+        <v>21.72</v>
       </c>
       <c r="G100">
-        <v>77.599999999999994</v>
+        <v>63.4</v>
       </c>
       <c r="H100">
-        <v>3.88</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B101">
-        <v>3.93</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="C101">
-        <v>4.5</v>
+        <v>5.07</v>
       </c>
       <c r="D101">
-        <v>2.81</v>
+        <v>3.17</v>
       </c>
       <c r="E101">
-        <v>3</v>
+        <v>17.5</v>
       </c>
       <c r="F101">
-        <v>31.96</v>
+        <v>22.22</v>
       </c>
       <c r="G101">
-        <v>56.2</v>
+        <v>63.4</v>
       </c>
       <c r="H101">
-        <v>2.81</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B102">
-        <v>3.93</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="C102">
-        <v>4.5</v>
+        <v>5.07</v>
       </c>
       <c r="D102">
-        <v>2.81</v>
+        <v>3.17</v>
       </c>
       <c r="E102">
-        <v>11.5</v>
+        <v>19.5</v>
       </c>
       <c r="F102">
-        <v>25.46</v>
+        <v>19.22</v>
       </c>
       <c r="G102">
-        <v>56.2</v>
+        <v>63.4</v>
       </c>
       <c r="H102">
-        <v>2.81</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B103">
-        <v>3.93</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="C103">
-        <v>4.5</v>
+        <v>5.07</v>
       </c>
       <c r="D103">
-        <v>2.81</v>
+        <v>3.17</v>
       </c>
       <c r="E103">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F103">
-        <v>15.96000000000001</v>
+        <v>25.72</v>
       </c>
       <c r="G103">
-        <v>56.2</v>
+        <v>63.4</v>
       </c>
       <c r="H103">
-        <v>2.81</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>9</v>
-      </c>
-      <c r="B104">
-        <v>4.7</v>
-      </c>
-      <c r="C104">
-        <v>5.38</v>
-      </c>
-      <c r="D104">
-        <v>3.36</v>
-      </c>
-      <c r="E104">
-        <v>16</v>
-      </c>
-      <c r="F104">
-        <v>28.760000000000009</v>
-      </c>
-      <c r="G104">
-        <v>67.2</v>
-      </c>
-      <c r="H104">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>8</v>
-      </c>
-      <c r="B105">
-        <v>4.7</v>
-      </c>
-      <c r="C105">
-        <v>5.38</v>
-      </c>
-      <c r="D105">
-        <v>3.36</v>
-      </c>
-      <c r="E105">
-        <v>18</v>
-      </c>
-      <c r="F105">
-        <v>27.760000000000009</v>
-      </c>
-      <c r="G105">
-        <v>67.2</v>
-      </c>
-      <c r="H105">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>12</v>
-      </c>
-      <c r="B106">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="C106">
-        <v>5.22</v>
-      </c>
-      <c r="D106">
-        <v>3.26</v>
-      </c>
-      <c r="E106">
-        <v>16</v>
-      </c>
-      <c r="F106">
-        <v>24.16</v>
-      </c>
-      <c r="G106">
-        <v>65.2</v>
-      </c>
-      <c r="H106">
-        <v>3.26</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>13</v>
-      </c>
-      <c r="B107">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="C107">
-        <v>5.22</v>
-      </c>
-      <c r="D107">
-        <v>3.26</v>
-      </c>
-      <c r="E107">
-        <v>17</v>
-      </c>
-      <c r="F107">
-        <v>22.16</v>
-      </c>
-      <c r="G107">
-        <v>65.2</v>
-      </c>
-      <c r="H107">
-        <v>3.26</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>10</v>
-      </c>
-      <c r="B108">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="C108">
-        <v>5.22</v>
-      </c>
-      <c r="D108">
-        <v>3.26</v>
-      </c>
-      <c r="E108">
-        <v>13</v>
-      </c>
-      <c r="F108">
-        <v>29.16</v>
-      </c>
-      <c r="G108">
-        <v>65.2</v>
-      </c>
-      <c r="H108">
-        <v>3.26</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>11</v>
-      </c>
-      <c r="B109">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="C109">
-        <v>5.22</v>
-      </c>
-      <c r="D109">
-        <v>3.26</v>
-      </c>
-      <c r="E109">
-        <v>16</v>
-      </c>
-      <c r="F109">
-        <v>25.16</v>
-      </c>
-      <c r="G109">
-        <v>65.2</v>
-      </c>
-      <c r="H109">
-        <v>3.26</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>11</v>
-      </c>
-      <c r="B110">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="C110">
-        <v>5.07</v>
-      </c>
-      <c r="D110">
-        <v>3.17</v>
-      </c>
-      <c r="E110">
-        <v>18</v>
-      </c>
-      <c r="F110">
-        <v>21.72</v>
-      </c>
-      <c r="G110">
-        <v>63.4</v>
-      </c>
-      <c r="H110">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>11</v>
-      </c>
-      <c r="B111">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="C111">
-        <v>5.07</v>
-      </c>
-      <c r="D111">
-        <v>3.17</v>
-      </c>
-      <c r="E111">
-        <v>17.5</v>
-      </c>
-      <c r="F111">
-        <v>22.22</v>
-      </c>
-      <c r="G111">
-        <v>63.4</v>
-      </c>
-      <c r="H111">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>12</v>
-      </c>
-      <c r="B112">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="C112">
-        <v>5.07</v>
-      </c>
-      <c r="D112">
-        <v>3.17</v>
-      </c>
-      <c r="E112">
-        <v>19.5</v>
-      </c>
-      <c r="F112">
-        <v>19.22</v>
-      </c>
-      <c r="G112">
-        <v>63.4</v>
-      </c>
-      <c r="H112">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>8</v>
-      </c>
-      <c r="B113">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="C113">
-        <v>5.07</v>
-      </c>
-      <c r="D113">
-        <v>3.17</v>
-      </c>
-      <c r="E113">
-        <v>17</v>
-      </c>
-      <c r="F113">
-        <v>25.72</v>
-      </c>
-      <c r="G113">
-        <v>63.4</v>
-      </c>
-      <c r="H113">
         <v>3.17</v>
       </c>
     </row>
